--- a/T- and Chi2 test tables/top4_just_img_means_by_binary_target.xlsx
+++ b/T- and Chi2 test tables/top4_just_img_means_by_binary_target.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>variable</t>
   </si>
@@ -74,6 +74,48 @@
   </si>
   <si>
     <t>pottedplant</t>
+  </si>
+  <si>
+    <t>asking_for_eng</t>
+  </si>
+  <si>
+    <t>raw_length</t>
+  </si>
+  <si>
+    <t>is_weekday</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>has_emoji</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>chair</t>
   </si>
 </sst>
 </file>
@@ -431,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -779,6 +821,328 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0.0007336757153338225</v>
+      </c>
+      <c r="D16">
+        <v>0.006896551724137931</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.374</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>169.8595011005136</v>
+      </c>
+      <c r="D17">
+        <v>170.9448275862069</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.852</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>0.8374908290535583</v>
+      </c>
+      <c r="D18">
+        <v>0.8827586206896552</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.104</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>0.1455888663372091</v>
+      </c>
+      <c r="D19">
+        <v>0.156303374576369</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.625</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0.01092644082657158</v>
+      </c>
+      <c r="D20">
+        <v>0.01432495715958005</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.444</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.1336080107819284</v>
+      </c>
+      <c r="D21">
+        <v>0.1597609066140122</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.227</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>0.006631191695890626</v>
+      </c>
+      <c r="D22">
+        <v>0.007060371619443996</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.9</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>0.008070432868672046</v>
+      </c>
+      <c r="D23">
+        <v>0.02068965517241379</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.294</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="D24">
+        <v>0.02068965517241379</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.776</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>0.1636096845194424</v>
+      </c>
+      <c r="D25">
+        <v>0.1586206896551724</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.873</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>0.1100601782959939</v>
+      </c>
+      <c r="D26">
+        <v>0.1029391669932526</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.589</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0.2113220067281919</v>
+      </c>
+      <c r="D27">
+        <v>0.2039259511970872</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.708</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0.004676090420213095</v>
+      </c>
+      <c r="D28">
+        <v>0.003291771732341626</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.309</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>0.04108584005869406</v>
+      </c>
+      <c r="D29">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.674</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
